--- a/src/test/resources/tampered.xlsx
+++ b/src/test/resources/tampered.xlsx
@@ -94,6 +94,9 @@
       <c r="L1" s="3">
         <v>z</v>
       </c>
+      <c t="s" r="M1">
+        <v>a</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>
